--- a/Projects Docs/Test paln 1.2..xlsx
+++ b/Projects Docs/Test paln 1.2..xlsx
@@ -19,11 +19,12 @@
     <sheet name="Test cases" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="144">
   <si>
     <t>Project Information</t>
   </si>
@@ -97,17 +98,10 @@
     <t>TE1004</t>
   </si>
   <si>
-    <t>• Focus the camera on the road.
-• Inspect the output in the screen.</t>
-  </si>
-  <si>
     <t>Reducing the background noises for a better view of lane.</t>
   </si>
   <si>
     <t>TE2001</t>
-  </si>
-  <si>
-    <t>Detection of road and traffic signs.</t>
   </si>
   <si>
     <t>TE2002</t>
@@ -129,13 +123,7 @@
     <t>TE2004</t>
   </si>
   <si>
-    <t>Detection of Traffic light signals and speed limit signs.</t>
-  </si>
-  <si>
     <t>TE2005</t>
-  </si>
-  <si>
-    <t>Detection of lane lines and sign boards more clearer in day light.</t>
   </si>
   <si>
     <t xml:space="preserve">The purpose of this document is to specify the test cases for the project Line and sign detection </t>
@@ -199,18 +187,7 @@
     <t>TE1006</t>
   </si>
   <si>
-    <t xml:space="preserve">• Focus the camera on the road.
-• Inspect the output in the screen.
-</t>
-  </si>
-  <si>
-    <t>The system should be able to detect continous lines and ignore dotted lines.</t>
-  </si>
-  <si>
     <t>TE2006</t>
-  </si>
-  <si>
-    <t>Detection of proper sign boards.</t>
   </si>
   <si>
     <t xml:space="preserve">3. TEST ENVIRONMENT </t>
@@ -308,9 +285,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>PostConditions</t>
-  </si>
-  <si>
     <t>Preconditions</t>
   </si>
   <si>
@@ -386,9 +360,6 @@
     <t>Check if the system could detect the curved lanes</t>
   </si>
   <si>
-    <t>TE2007</t>
-  </si>
-  <si>
     <t>Examine whether the system detects the Major road signs</t>
   </si>
   <si>
@@ -398,16 +369,7 @@
     <t>Examine whether the system detects the Speed limit signs</t>
   </si>
   <si>
-    <t>Examine whether the system detects traffic light signals and digital display signs</t>
-  </si>
-  <si>
     <t>Check if the system could detect multiple signs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Examine the Accuracy of the system </t>
-  </si>
-  <si>
-    <t>Calibration input - to set the angle of the camera</t>
   </si>
   <si>
     <t>• Focus the camera on the road. 
@@ -425,18 +387,9 @@
     <t xml:space="preserve">Video feed from the road and Testing the hardware in real time.    </t>
   </si>
   <si>
-    <t xml:space="preserve">In Testing Phase </t>
-  </si>
-  <si>
     <t>In Design  Phase</t>
   </si>
   <si>
-    <t>In Design Phase</t>
-  </si>
-  <si>
-    <t>In Testign Phase</t>
-  </si>
-  <si>
     <t>The camera captures Video frame and identifies the road lanes and should highlight the lanes.</t>
   </si>
   <si>
@@ -446,15 +399,9 @@
     <t>The camera captures all the vehicles,sign borads and road. The system should identify and highlight only the lane lines and the sign boards. It should ignore other objects.</t>
   </si>
   <si>
-    <t>To get a better view of the lane line, the region of interest has to be selcted accordingly. It also reduces the background noises.</t>
-  </si>
-  <si>
     <t>Check if the system could Recogonize all the sign boards</t>
   </si>
   <si>
-    <t>The Video frames captured by the camera, sometimes may contain the distorted images or blurred image of the sign borads.</t>
-  </si>
-  <si>
     <t>The system should identify lane lines and sign boards clearly. It should not detect and highlight other noises like vehicles, trees.</t>
   </si>
   <si>
@@ -470,9 +417,6 @@
     <t>The camera captures video frames in different light conditions, in night light,tunnel light switching, different day light. The system has to identify the lane line and sign boards.</t>
   </si>
   <si>
-    <t>The system has to detect the lane lines and sign boards with good accuracy</t>
-  </si>
-  <si>
     <t>The Video frames captured by the camera, sometimes may contain the distorted images or blurred image of the sign borads.Sometimes the sign boards maybe faded.</t>
   </si>
   <si>
@@ -545,10 +489,49 @@
     <t>Detection of multiple sign boards.</t>
   </si>
   <si>
-    <t>Accuracy of the system</t>
-  </si>
-  <si>
     <t xml:space="preserve">Detection of sign boards </t>
+  </si>
+  <si>
+    <t>Calibration input</t>
+  </si>
+  <si>
+    <t>Test Log</t>
+  </si>
+  <si>
+    <t>Pass / Fail</t>
+  </si>
+  <si>
+    <t>To get a better view of the lane line, the region of interest has to be selected accordingly. It also reduces the background noises.</t>
+  </si>
+  <si>
+    <t>Testing of ROI 
+code</t>
+  </si>
+  <si>
+    <t>TE1015</t>
+  </si>
+  <si>
+    <t>• Examine if it goes to calibration mode when proper input is given. 
+• check when the ROI is selected, it should write the file.</t>
+  </si>
+  <si>
+    <t>•Enter the input 's', it should go into calibration mode.
+• Select the region, when the ROI is selected it will write that file.</t>
+  </si>
+  <si>
+    <t>•Enter valid input
+•Select the region of interest.</t>
+  </si>
+  <si>
+    <t>•It should go in for calibration mode.
+•It should write the selected ROI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video feed from the road.   </t>
+  </si>
+  <si>
+    <t>• Focus the camera on the road. 
+• The lane line should be identified by the system.• The Curved Lane line is highlighted.</t>
   </si>
 </sst>
 </file>
@@ -893,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -951,6 +934,27 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -994,26 +998,8 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1324,98 +1310,98 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9">
-      <c r="A3" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="A3" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="32.4" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="28.95" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="30.6" customHeight="1"/>
     <row r="7" spans="1:9" ht="45" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="27.6">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="40.5" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="2">
         <v>44131</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="2">
         <v>44238</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1450,14 +1436,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="28"/>
+      <c r="A1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:2" ht="18">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
@@ -1512,7 +1498,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1526,7 +1512,7 @@
     </row>
     <row r="3" spans="1:9" ht="31.2">
       <c r="A3" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1538,11 +1524,11 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="15.6">
-      <c r="A4" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="A4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -1551,22 +1537,22 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="15.6">
-      <c r="A5" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="A5" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9" ht="15.6">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -1576,10 +1562,10 @@
     </row>
     <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="15"/>
@@ -1591,10 +1577,10 @@
     </row>
     <row r="8" spans="1:9" ht="55.5" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="15"/>
@@ -1606,10 +1592,10 @@
     </row>
     <row r="9" spans="1:9" ht="31.2">
       <c r="A9" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="15"/>
@@ -1621,10 +1607,10 @@
     </row>
     <row r="10" spans="1:9" ht="46.8">
       <c r="A10" s="18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="15"/>
@@ -1636,10 +1622,10 @@
     </row>
     <row r="11" spans="1:9" ht="62.4">
       <c r="A11" s="20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -1674,13 +1660,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6">
-      <c r="A1" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="32"/>
+      <c r="A1" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" ht="15.6" thickBot="1">
       <c r="A2" s="21"/>
@@ -1688,11 +1674,11 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="156.75" customHeight="1" thickBot="1">
-      <c r="A3" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1705,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1720,29 +1706,29 @@
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="8" max="10" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.4" thickBot="1">
+    <row r="1" spans="1:12" ht="35.4" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>14</v>
@@ -1751,571 +1737,612 @@
         <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="132" customHeight="1" thickTop="1">
+      <c r="L1" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="132" customHeight="1" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>75</v>
+      <c r="B2" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="124.8">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="124.8">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>76</v>
+      <c r="B3" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="156">
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="156">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>80</v>
+      <c r="B4" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="121.8" customHeight="1">
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="166.2" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="172.8" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="172.8" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="112.5" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="124.8">
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="78">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="156">
+      <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="109.2">
+      <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="93.6">
+      <c r="A13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="139.19999999999999" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="121.2" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="127.8" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="98.4" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="112.2" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="78.599999999999994" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="108.6" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="74.400000000000006" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="178.2" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="145.19999999999999" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="112.5" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="124.8">
-      <c r="A8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="78">
-      <c r="A9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="156">
-      <c r="A10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="109.2">
-      <c r="A11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="93.6">
-      <c r="A12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="109.8" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="81" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="91.2" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="40" t="s">
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="98.4" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="42" t="s">
+      <c r="G22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="112.2" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="78.599999999999994" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="108.6" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="74.400000000000006" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="106.2" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="178.2" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="K22" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>111</v>
-      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
